--- a/pilot-study/report/participation/incomplete-participation/NonParametricAnalysis.xlsx
+++ b/pilot-study/report/participation/incomplete-participation/NonParametricAnalysis.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="48">
   <si>
-    <t>Summary of Kruskal-Wallis rank sum test for Pct of Students Having Incomplete Participation</t>
+    <t>Summary of Kruskal-Wallis rank sum test for Pct Having Incomplete Participation</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -59,7 +59,7 @@
     <t>non-gamified - ont-gamified</t>
   </si>
   <si>
-    <t>Summary of Wilcoxon Analysis for Pct of Students Having Incomplete Participation</t>
+    <t>Summary of Wilcoxon Analysis for Pct Having Incomplete Participation</t>
   </si>
   <si>
     <t>Wilcoxon test results for Type - Alternative hypothesis: greater</t>
@@ -98,7 +98,7 @@
     <t>large</t>
   </si>
   <si>
-    <t>Wilcoxon Analysis for Pct of Students Having Incomplete Participation in Type between non-gamified:ont-gamified</t>
+    <t>Wilcoxon Analysis for Pct Having Incomplete Participation in Type between non-gamified:ont-gamified</t>
   </si>
   <si>
     <t>Wilcoxon test results</t>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n" s="246">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B59" t="s" s="247">
         <v>40</v>
@@ -2423,7 +2423,7 @@
         <v>15.0</v>
       </c>
       <c r="B63" t="s" s="247">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C63" t="s" s="248">
         <v>25</v>
@@ -2432,7 +2432,7 @@
         <v>47</v>
       </c>
       <c r="E63" t="n" s="250">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="64">
@@ -2440,7 +2440,7 @@
         <v>16.0</v>
       </c>
       <c r="B64" t="s" s="247">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C64" t="s" s="248">
         <v>25</v>
@@ -2449,7 +2449,7 @@
         <v>47</v>
       </c>
       <c r="E64" t="n" s="250">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="65">
@@ -2561,7 +2561,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="257">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B4" t="s" s="258">
         <v>40</v>
@@ -2632,7 +2632,7 @@
         <v>15.0</v>
       </c>
       <c r="B8" t="s" s="258">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s" s="259">
         <v>25</v>
@@ -2641,7 +2641,7 @@
         <v>47</v>
       </c>
       <c r="E8" t="n" s="261">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9">
@@ -2649,7 +2649,7 @@
         <v>16.0</v>
       </c>
       <c r="B9" t="s" s="258">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s" s="259">
         <v>25</v>
@@ -2658,7 +2658,7 @@
         <v>47</v>
       </c>
       <c r="E9" t="n" s="261">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
